--- a/repositories/indices.xlsx
+++ b/repositories/indices.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoferreira/Documents/01 - Projetos Dev/04 - Projeto Aplicado XP/correcao-de-financiamentos-backend/correcao-de-financiamentos-backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoferreira/Documents/01 - Projetos Dev/04 - Projeto Aplicado XP/correcao-de-financiamentos-backend/correcao-de-financiamentos-backend/repositories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46CC1AE9-021F-7847-9CF1-B21898647826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A9DE5-F6F7-7A4B-B534-DB3C91C7E444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1240" windowWidth="27840" windowHeight="16660" xr2:uid="{8026958E-D0E4-B64E-996A-5CD95005D97C}"/>
+    <workbookView xWindow="31280" yWindow="-5580" windowWidth="27840" windowHeight="16660" xr2:uid="{8026958E-D0E4-B64E-996A-5CD95005D97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,1022 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
+  <si>
+    <t>1996-07-01</t>
+  </si>
+  <si>
+    <t>1996-08-01</t>
+  </si>
+  <si>
+    <t>1996-09-01</t>
+  </si>
+  <si>
+    <t>1996-10-01</t>
+  </si>
+  <si>
+    <t>1996-11-01</t>
+  </si>
+  <si>
+    <t>1996-12-01</t>
+  </si>
+  <si>
+    <t>1997-01-01</t>
+  </si>
+  <si>
+    <t>1997-02-01</t>
+  </si>
+  <si>
+    <t>1997-03-01</t>
+  </si>
+  <si>
+    <t>1997-04-01</t>
+  </si>
+  <si>
+    <t>1997-05-01</t>
+  </si>
+  <si>
+    <t>1997-06-01</t>
+  </si>
+  <si>
+    <t>1997-07-01</t>
+  </si>
+  <si>
+    <t>1997-08-01</t>
+  </si>
+  <si>
+    <t>1997-09-01</t>
+  </si>
+  <si>
+    <t>1997-10-01</t>
+  </si>
+  <si>
+    <t>1997-11-01</t>
+  </si>
+  <si>
+    <t>1997-12-01</t>
+  </si>
+  <si>
+    <t>1998-01-01</t>
+  </si>
+  <si>
+    <t>1998-02-01</t>
+  </si>
+  <si>
+    <t>1998-03-01</t>
+  </si>
+  <si>
+    <t>1998-04-01</t>
+  </si>
+  <si>
+    <t>1998-05-01</t>
+  </si>
+  <si>
+    <t>1998-06-01</t>
+  </si>
+  <si>
+    <t>1998-07-01</t>
+  </si>
+  <si>
+    <t>1998-08-01</t>
+  </si>
+  <si>
+    <t>1998-09-01</t>
+  </si>
+  <si>
+    <t>1998-10-01</t>
+  </si>
+  <si>
+    <t>1998-11-01</t>
+  </si>
+  <si>
+    <t>1998-12-01</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>1999-02-01</t>
+  </si>
+  <si>
+    <t>1999-03-01</t>
+  </si>
+  <si>
+    <t>1999-04-01</t>
+  </si>
+  <si>
+    <t>1999-05-01</t>
+  </si>
+  <si>
+    <t>1999-06-01</t>
+  </si>
+  <si>
+    <t>1999-07-01</t>
+  </si>
+  <si>
+    <t>1999-08-01</t>
+  </si>
+  <si>
+    <t>1999-09-01</t>
+  </si>
+  <si>
+    <t>1999-10-01</t>
+  </si>
+  <si>
+    <t>1999-11-01</t>
+  </si>
+  <si>
+    <t>1999-12-01</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>2000-02-01</t>
+  </si>
+  <si>
+    <t>2000-03-01</t>
+  </si>
+  <si>
+    <t>2000-04-01</t>
+  </si>
+  <si>
+    <t>2000-05-01</t>
+  </si>
+  <si>
+    <t>2000-06-01</t>
+  </si>
+  <si>
+    <t>2000-07-01</t>
+  </si>
+  <si>
+    <t>2000-08-01</t>
+  </si>
+  <si>
+    <t>2000-09-01</t>
+  </si>
+  <si>
+    <t>2000-10-01</t>
+  </si>
+  <si>
+    <t>2000-11-01</t>
+  </si>
+  <si>
+    <t>2000-12-01</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>2001-02-01</t>
+  </si>
+  <si>
+    <t>2001-03-01</t>
+  </si>
+  <si>
+    <t>2001-04-01</t>
+  </si>
+  <si>
+    <t>2001-05-01</t>
+  </si>
+  <si>
+    <t>2001-06-01</t>
+  </si>
+  <si>
+    <t>2001-07-01</t>
+  </si>
+  <si>
+    <t>2001-08-01</t>
+  </si>
+  <si>
+    <t>2001-09-01</t>
+  </si>
+  <si>
+    <t>2001-10-01</t>
+  </si>
+  <si>
+    <t>2001-11-01</t>
+  </si>
+  <si>
+    <t>2001-12-01</t>
+  </si>
+  <si>
+    <t>2002-01-01</t>
+  </si>
+  <si>
+    <t>2002-02-01</t>
+  </si>
+  <si>
+    <t>2002-03-01</t>
+  </si>
+  <si>
+    <t>2002-04-01</t>
+  </si>
+  <si>
+    <t>2002-05-01</t>
+  </si>
+  <si>
+    <t>2002-06-01</t>
+  </si>
+  <si>
+    <t>2002-07-01</t>
+  </si>
+  <si>
+    <t>2002-08-01</t>
+  </si>
+  <si>
+    <t>2002-09-01</t>
+  </si>
+  <si>
+    <t>2002-10-01</t>
+  </si>
+  <si>
+    <t>2002-11-01</t>
+  </si>
+  <si>
+    <t>2002-12-01</t>
+  </si>
+  <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>2003-02-01</t>
+  </si>
+  <si>
+    <t>2003-03-01</t>
+  </si>
+  <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
+    <t>2003-05-01</t>
+  </si>
+  <si>
+    <t>2003-06-01</t>
+  </si>
+  <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
+    <t>2003-08-01</t>
+  </si>
+  <si>
+    <t>2003-09-01</t>
+  </si>
+  <si>
+    <t>2003-10-01</t>
+  </si>
+  <si>
+    <t>2003-11-01</t>
+  </si>
+  <si>
+    <t>2003-12-01</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>2004-02-01</t>
+  </si>
+  <si>
+    <t>2004-03-01</t>
+  </si>
+  <si>
+    <t>2004-04-01</t>
+  </si>
+  <si>
+    <t>2004-05-01</t>
+  </si>
+  <si>
+    <t>2004-06-01</t>
+  </si>
+  <si>
+    <t>2004-07-01</t>
+  </si>
+  <si>
+    <t>2004-08-01</t>
+  </si>
+  <si>
+    <t>2004-09-01</t>
+  </si>
+  <si>
+    <t>2004-10-01</t>
+  </si>
+  <si>
+    <t>2004-11-01</t>
+  </si>
+  <si>
+    <t>2004-12-01</t>
+  </si>
+  <si>
+    <t>2005-01-01</t>
+  </si>
+  <si>
+    <t>2005-02-01</t>
+  </si>
+  <si>
+    <t>2005-03-01</t>
+  </si>
+  <si>
+    <t>2005-04-01</t>
+  </si>
+  <si>
+    <t>2005-05-01</t>
+  </si>
+  <si>
+    <t>2005-06-01</t>
+  </si>
+  <si>
+    <t>2005-07-01</t>
+  </si>
+  <si>
+    <t>2005-08-01</t>
+  </si>
+  <si>
+    <t>2005-09-01</t>
+  </si>
+  <si>
+    <t>2005-10-01</t>
+  </si>
+  <si>
+    <t>2005-11-01</t>
+  </si>
+  <si>
+    <t>2005-12-01</t>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2006-02-01</t>
+  </si>
+  <si>
+    <t>2006-03-01</t>
+  </si>
+  <si>
+    <t>2006-04-01</t>
+  </si>
+  <si>
+    <t>2006-05-01</t>
+  </si>
+  <si>
+    <t>2006-06-01</t>
+  </si>
+  <si>
+    <t>2006-07-01</t>
+  </si>
+  <si>
+    <t>2006-08-01</t>
+  </si>
+  <si>
+    <t>2006-09-01</t>
+  </si>
+  <si>
+    <t>2006-10-01</t>
+  </si>
+  <si>
+    <t>2006-11-01</t>
+  </si>
+  <si>
+    <t>2006-12-01</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>2007-02-01</t>
+  </si>
+  <si>
+    <t>2007-03-01</t>
+  </si>
+  <si>
+    <t>2007-04-01</t>
+  </si>
+  <si>
+    <t>2007-05-01</t>
+  </si>
+  <si>
+    <t>2007-06-01</t>
+  </si>
+  <si>
+    <t>2007-07-01</t>
+  </si>
+  <si>
+    <t>2007-08-01</t>
+  </si>
+  <si>
+    <t>2007-09-01</t>
+  </si>
+  <si>
+    <t>2007-10-01</t>
+  </si>
+  <si>
+    <t>2007-11-01</t>
+  </si>
+  <si>
+    <t>2007-12-01</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2008-02-01</t>
+  </si>
+  <si>
+    <t>2008-03-01</t>
+  </si>
+  <si>
+    <t>2008-04-01</t>
+  </si>
+  <si>
+    <t>2008-05-01</t>
+  </si>
+  <si>
+    <t>2008-06-01</t>
+  </si>
+  <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
+    <t>2008-09-01</t>
+  </si>
+  <si>
+    <t>2008-10-01</t>
+  </si>
+  <si>
+    <t>2008-11-01</t>
+  </si>
+  <si>
+    <t>2008-12-01</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2009-02-01</t>
+  </si>
+  <si>
+    <t>2009-03-01</t>
+  </si>
+  <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
+    <t>2009-05-01</t>
+  </si>
+  <si>
+    <t>2009-06-01</t>
+  </si>
+  <si>
+    <t>2009-07-01</t>
+  </si>
+  <si>
+    <t>2009-08-01</t>
+  </si>
+  <si>
+    <t>2009-09-01</t>
+  </si>
+  <si>
+    <t>2009-10-01</t>
+  </si>
+  <si>
+    <t>2009-11-01</t>
+  </si>
+  <si>
+    <t>2009-12-01</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2010-02-01</t>
+  </si>
+  <si>
+    <t>2010-03-01</t>
+  </si>
+  <si>
+    <t>2010-04-01</t>
+  </si>
+  <si>
+    <t>2010-05-01</t>
+  </si>
+  <si>
+    <t>2010-06-01</t>
+  </si>
+  <si>
+    <t>2010-07-01</t>
+  </si>
+  <si>
+    <t>2010-08-01</t>
+  </si>
+  <si>
+    <t>2010-09-01</t>
+  </si>
+  <si>
+    <t>2010-10-01</t>
+  </si>
+  <si>
+    <t>2010-11-01</t>
+  </si>
+  <si>
+    <t>2010-12-01</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2011-02-01</t>
+  </si>
+  <si>
+    <t>2011-03-01</t>
+  </si>
+  <si>
+    <t>2011-04-01</t>
+  </si>
+  <si>
+    <t>2011-05-01</t>
+  </si>
+  <si>
+    <t>2011-06-01</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>2011-08-01</t>
+  </si>
+  <si>
+    <t>2011-09-01</t>
+  </si>
+  <si>
+    <t>2011-10-01</t>
+  </si>
+  <si>
+    <t>2011-11-01</t>
+  </si>
+  <si>
+    <t>2011-12-01</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>2012-03-01</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>2012-06-01</t>
+  </si>
+  <si>
+    <t>2012-07-01</t>
+  </si>
+  <si>
+    <t>2012-08-01</t>
+  </si>
+  <si>
+    <t>2012-09-01</t>
+  </si>
+  <si>
+    <t>2012-10-01</t>
+  </si>
+  <si>
+    <t>2012-11-01</t>
+  </si>
+  <si>
+    <t>2012-12-01</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2013-02-01</t>
+  </si>
+  <si>
+    <t>2013-03-01</t>
+  </si>
+  <si>
+    <t>2013-04-01</t>
+  </si>
+  <si>
+    <t>2013-05-01</t>
+  </si>
+  <si>
+    <t>2013-06-01</t>
+  </si>
+  <si>
+    <t>2013-07-01</t>
+  </si>
+  <si>
+    <t>2013-08-01</t>
+  </si>
+  <si>
+    <t>2013-09-01</t>
+  </si>
+  <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
+  </si>
+  <si>
+    <t>2013-12-01</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2014-02-01</t>
+  </si>
+  <si>
+    <t>2014-03-01</t>
+  </si>
+  <si>
+    <t>2014-04-01</t>
+  </si>
+  <si>
+    <t>2014-05-01</t>
+  </si>
+  <si>
+    <t>2014-06-01</t>
+  </si>
+  <si>
+    <t>2014-07-01</t>
+  </si>
+  <si>
+    <t>2014-08-01</t>
+  </si>
+  <si>
+    <t>2014-09-01</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2014-11-01</t>
+  </si>
+  <si>
+    <t>2014-12-01</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2015-02-01</t>
+  </si>
+  <si>
+    <t>2015-03-01</t>
+  </si>
+  <si>
+    <t>2015-04-01</t>
+  </si>
+  <si>
+    <t>2015-05-01</t>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>2015-08-01</t>
+  </si>
+  <si>
+    <t>2015-09-01</t>
+  </si>
+  <si>
+    <t>2015-10-01</t>
+  </si>
+  <si>
+    <t>2015-11-01</t>
+  </si>
+  <si>
+    <t>2015-12-01</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-03-01</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>2016-05-01</t>
+  </si>
+  <si>
+    <t>2016-06-01</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-09-01</t>
+  </si>
+  <si>
+    <t>2016-10-01</t>
+  </si>
+  <si>
+    <t>2016-11-01</t>
+  </si>
+  <si>
+    <t>2016-12-01</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2017-02-01</t>
+  </si>
+  <si>
+    <t>2017-03-01</t>
+  </si>
+  <si>
+    <t>2017-04-01</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-06-01</t>
+  </si>
+  <si>
+    <t>2017-07-01</t>
+  </si>
+  <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
+  </si>
+  <si>
+    <t>2017-10-01</t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>2017-12-01</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-02-01</t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
+    <t>2018-04-01</t>
+  </si>
+  <si>
+    <t>2018-05-01</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>2018-12-01</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>2019-06-01</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+  </si>
+  <si>
+    <t>2019-09-01</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>data_calendario</t>
+  </si>
+  <si>
+    <t>IPCA</t>
+  </si>
+  <si>
+    <t>IGPM</t>
+  </si>
+  <si>
+    <t>INCC</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,4671 +1422,4687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5634DD6D-67CD-9F43-9644-B2C792D83AB1}">
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>35247</v>
-      </c>
-      <c r="B1">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1340.56</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>133.21299999999999</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>149.095</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>35278</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>1346.46</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>133.58699999999999</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>149.44499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>35309</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>1348.48</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>133.72200000000001</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>149.77199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>35339</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>1352.53</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>133.97800000000001</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>150.15700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>35370</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>1356.86</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>134.24199999999999</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>151.035</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>35400</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>1363.24</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>135.22499999999999</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>151.922</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>35431</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>1379.33</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>137.613</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>152.40799999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>35462</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>1386.23</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>138.20400000000001</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>153.14699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>35490</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>1393.3</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>139.79499999999999</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>154.26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>35521</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>1405.56</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>140.74199999999999</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>154.61600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>35551</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>1411.32</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>141.04</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>155.953</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>35582</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>1418.94</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>142.09</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>157.68700000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>35612</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>1422.06</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>142.221</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>158.48500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>35643</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>1421.78</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>142.35300000000001</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>160.352</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>35674</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>1422.63</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>143.042</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>160.78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>35704</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>1425.9</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>143.56700000000001</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>161.024</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>35735</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>1428.32</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>144.48099999999999</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>161.89699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>35765</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>1434.46</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>145.69499999999999</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>162.27099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>35796</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>1444.64</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>147.09100000000001</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>162.80500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>35827</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>1451.29</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>147.35599999999999</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>163.59299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>35855</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>1456.22</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>147.63499999999999</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>164.36099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>35886</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>1459.71</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>147.821</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>163.535</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>35916</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>1467.01</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>148.02099999999999</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>165.13300000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>35947</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>1467.3</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>148.58799999999999</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>165.78100000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>35977</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>1465.54</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>148.339</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>166.345</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>36008</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>1458.07</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>148.10900000000001</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>166.70500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>36039</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>1454.86</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>147.98400000000001</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>166.72900000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>36069</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>1455.15</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>148.1</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>166.738</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>36100</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>1453.4</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>147.62799999999999</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>166.65700000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>36130</v>
-      </c>
-      <c r="B30">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
         <v>1458.2</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>148.291</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>166.733</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>36161</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>1468.41</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>149.53299999999999</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>167.648</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>36192</v>
-      </c>
-      <c r="B32">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>1483.83</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>154.93299999999999</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>169.28800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>36220</v>
-      </c>
-      <c r="B33">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>1500.15</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>159.32499999999999</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>170.221</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>36251</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>1508.55</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>160.459</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>171.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>36281</v>
-      </c>
-      <c r="B35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <v>1513.08</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>159.99600000000001</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>172.578</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>36312</v>
-      </c>
-      <c r="B36">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
         <v>1515.95</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>160.57300000000001</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>173.279</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36342</v>
-      </c>
-      <c r="B37">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
         <v>1532.47</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>163.06</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>174.07400000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36373</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <v>1541.05</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>165.60300000000001</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>175.28</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>36404</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>1545.83</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>167.99700000000001</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>176.785</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>36434</v>
-      </c>
-      <c r="B40">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <v>1564.23</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>170.86099999999999</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>178.57400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>36465</v>
-      </c>
-      <c r="B41">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
         <v>1579.09</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>174.93899999999999</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>180.20699999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>36495</v>
-      </c>
-      <c r="B42">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>1588.56</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>178.09899999999999</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>182.084</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>36526</v>
-      </c>
-      <c r="B43">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
         <v>1598.41</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>180.30099999999999</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>184.03899999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>36557</v>
-      </c>
-      <c r="B44">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
         <v>1600.49</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>180.935</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>185.46100000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>36586</v>
-      </c>
-      <c r="B45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>1604.01</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>181.214</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>186.49199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>36617</v>
-      </c>
-      <c r="B46">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
         <v>1610.75</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>181.63499999999999</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>187.60400000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>36647</v>
-      </c>
-      <c r="B47">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>1610.91</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>182.18899999999999</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>190.136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>36678</v>
-      </c>
-      <c r="B48">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>1614.62</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>183.745</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>191.52699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>36708</v>
-      </c>
-      <c r="B49">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>1640.62</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>186.63399999999999</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>192.10400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>36739</v>
-      </c>
-      <c r="B50">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
         <v>1662.11</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>191.08699999999999</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>192.846</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>36770</v>
-      </c>
-      <c r="B51">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>1665.93</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>193.297</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>193.34200000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>36800</v>
-      </c>
-      <c r="B52">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>1668.26</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>194.04</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>193.98400000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>36831</v>
-      </c>
-      <c r="B53">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
         <v>1673.6</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>194.59899999999999</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>194.78899999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>36861</v>
-      </c>
-      <c r="B54">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>1683.47</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>195.827</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>196.03700000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>36892</v>
-      </c>
-      <c r="B55">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
         <v>1693.07</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>197.04499999999999</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>197.17400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>36923</v>
-      </c>
-      <c r="B56">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>1700.86</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>197.49100000000001</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>197.84899999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>36951</v>
-      </c>
-      <c r="B57">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
         <v>1707.32</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>198.60599999999999</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>198.38800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>36982</v>
-      </c>
-      <c r="B58">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
         <v>1717.22</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>200.59100000000001</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>199.11199999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>37012</v>
-      </c>
-      <c r="B59">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
         <v>1724.26</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>202.32400000000001</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>203.321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>37043</v>
-      </c>
-      <c r="B60">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
         <v>1733.23</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>204.31</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>205.68199999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>37073</v>
-      </c>
-      <c r="B61">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>1756.28</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>207.34100000000001</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>206.74199999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>37104</v>
-      </c>
-      <c r="B62">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
         <v>1768.57</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>210.21100000000001</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>208.02600000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>37135</v>
-      </c>
-      <c r="B63">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
         <v>1773.52</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>210.85300000000001</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>209.17400000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>37165</v>
-      </c>
-      <c r="B64">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>1788.24</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>213.339</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>211.12200000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>37196</v>
-      </c>
-      <c r="B65">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
         <v>1800.94</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>215.685</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>212.67599999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>37226</v>
-      </c>
-      <c r="B66">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
         <v>1812.65</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>216.16300000000001</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>213.393</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>37257</v>
-      </c>
-      <c r="B67">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
         <v>1822.08</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>216.94399999999999</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>214.16200000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>37288</v>
-      </c>
-      <c r="B68">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
         <v>1828.64</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>217.07400000000001</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>215.399</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>37316</v>
-      </c>
-      <c r="B69">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
         <v>1839.61</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>217.27600000000001</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>216.577</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>37347</v>
-      </c>
-      <c r="B70">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
         <v>1854.33</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>218.48599999999999</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>217.28800000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>37377</v>
-      </c>
-      <c r="B71">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
         <v>1858.22</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>220.292</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>222.79300000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>37408</v>
-      </c>
-      <c r="B72">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
         <v>1866.02</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>223.68799999999999</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>224.054</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>37438</v>
-      </c>
-      <c r="B73">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
         <v>1888.23</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>228.05699999999999</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>224.71199999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>37469</v>
-      </c>
-      <c r="B74">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
         <v>1900.5</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>233.34800000000001</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>226.96799999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>37500</v>
-      </c>
-      <c r="B75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
         <v>1914.18</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>238.94300000000001</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>228.57599999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>37530</v>
-      </c>
-      <c r="B76">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
         <v>1939.26</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>248.19900000000001</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>231.167</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>37561</v>
-      </c>
-      <c r="B77">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
         <v>1997.83</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>261.08</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>236.83</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>37591</v>
-      </c>
-      <c r="B78">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
         <v>2039.78</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>270.86700000000002</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>240.86099999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>37622</v>
-      </c>
-      <c r="B79">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
         <v>2085.6799999999998</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>277.173</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>244.489</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>37653</v>
-      </c>
-      <c r="B80">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
         <v>2118.4299999999998</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>283.50599999999997</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>247.898</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>37681</v>
-      </c>
-      <c r="B81">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
         <v>2144.4899999999998</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>287.85500000000002</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>251.31800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>37712</v>
-      </c>
-      <c r="B82">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
         <v>2165.29</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>290.512</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>253.58500000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>37742</v>
-      </c>
-      <c r="B83">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
         <v>2178.5</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>289.74700000000001</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>260.77800000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>37773</v>
-      </c>
-      <c r="B84">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
         <v>2175.23</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>286.84300000000002</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>263.51600000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>37803</v>
-      </c>
-      <c r="B85">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
         <v>2179.58</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>285.649</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>266.13200000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>37834</v>
-      </c>
-      <c r="B86">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
         <v>2186.9899999999998</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>286.73500000000001</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>269.96699999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>37865</v>
-      </c>
-      <c r="B87">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
         <v>2204.0500000000002</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>290.12700000000001</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>270.55500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>37895</v>
-      </c>
-      <c r="B88">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
         <v>2210.44</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>291.22899999999998</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>272.32499999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>37926</v>
-      </c>
-      <c r="B89">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
         <v>2217.96</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>292.65699999999998</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>275.15199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>37956</v>
-      </c>
-      <c r="B90">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
         <v>2229.4899999999998</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>294.45499999999998</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>275.59399999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>37987</v>
-      </c>
-      <c r="B91">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
         <v>2246.4299999999998</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>297.03899999999999</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>276.49</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>38018</v>
-      </c>
-      <c r="B92">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
         <v>2260.13</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>299.09699999999998</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>279.24299999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>38047</v>
-      </c>
-      <c r="B93">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
         <v>2270.75</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>302.48399999999998</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>282.47000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>38078</v>
-      </c>
-      <c r="B94">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
         <v>2279.15</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>306.15100000000001</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>284.12799999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>38108</v>
-      </c>
-      <c r="B95">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
         <v>2290.77</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>310.15199999999999</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>289.31700000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>38139</v>
-      </c>
-      <c r="B96">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
         <v>2307.0300000000002</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>314.41899999999998</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>291.34800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>38169</v>
-      </c>
-      <c r="B97">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
         <v>2328.02</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>318.53199999999998</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>294.625</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>38200</v>
-      </c>
-      <c r="B98">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
         <v>2344.08</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>322.41199999999998</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>297.00299999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>38231</v>
-      </c>
-      <c r="B99">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
         <v>2351.8200000000002</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>324.65100000000001</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>298.72199999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>38261</v>
-      </c>
-      <c r="B100">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
         <v>2362.17</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>325.92500000000001</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>302.27499999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>38292</v>
-      </c>
-      <c r="B101">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
         <v>2378.4699999999998</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>328.58800000000002</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>304.42899999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>38322</v>
-      </c>
-      <c r="B102">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
         <v>2398.92</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>331.005</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>305.97399999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>38353</v>
-      </c>
-      <c r="B103">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
         <v>2412.83</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>332.298</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>308.28399999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>38384</v>
-      </c>
-      <c r="B104">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
         <v>2427.0700000000002</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>333.28800000000001</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>309.64600000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>38412</v>
-      </c>
-      <c r="B105">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106">
         <v>2441.87</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>336.12299999999999</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>311.733</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>38443</v>
-      </c>
-      <c r="B106">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107">
         <v>2463.11</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>339.03</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>313.97699999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>38473</v>
-      </c>
-      <c r="B107">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108">
         <v>2475.1799999999998</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>338.29899999999998</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>320.524</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>38504</v>
-      </c>
-      <c r="B108">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109">
         <v>2474.6799999999998</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>336.80099999999999</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>322.97399999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>38534</v>
-      </c>
-      <c r="B109">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110">
         <v>2480.87</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>335.66300000000001</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>323.33199999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>38565</v>
-      </c>
-      <c r="B110">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
         <v>2485.09</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>333.47399999999999</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>323.38200000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>38596</v>
-      </c>
-      <c r="B111">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
         <v>2493.79</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>331.69</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>324.16399999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>38626</v>
-      </c>
-      <c r="B112">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113">
         <v>2512.4899999999998</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>333.69400000000002</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>324.78199999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>38657</v>
-      </c>
-      <c r="B113">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114">
         <v>2526.31</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>335.03300000000002</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>325.70299999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>38687</v>
-      </c>
-      <c r="B114">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115">
         <v>2535.4</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>335.00599999999997</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>326.91500000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>38718</v>
-      </c>
-      <c r="B115">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116">
         <v>2550.36</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>338.08300000000003</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <v>328.04199999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>38749</v>
-      </c>
-      <c r="B116">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117">
         <v>2560.8200000000002</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>338.12799999999999</v>
       </c>
-      <c r="D116">
+      <c r="D117">
         <v>328.65100000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>38777</v>
-      </c>
-      <c r="B117">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118">
         <v>2571.83</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>337.339</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <v>329.32</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>38808</v>
-      </c>
-      <c r="B118">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119">
         <v>2577.23</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>335.92099999999999</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <v>330.50099999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>38838</v>
-      </c>
-      <c r="B119">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
         <v>2579.81</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>337.185</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>334.86700000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>38869</v>
-      </c>
-      <c r="B120">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121">
         <v>2574.39</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <v>339.71199999999999</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>337.892</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>38899</v>
-      </c>
-      <c r="B121">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122">
         <v>2579.2800000000002</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>340.31200000000001</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>339.48399999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>38930</v>
-      </c>
-      <c r="B122">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123">
         <v>2580.5700000000002</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>341.57400000000001</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>340.28300000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>38961</v>
-      </c>
-      <c r="B123">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124">
         <v>2585.9899999999998</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>342.56099999999998</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>340.67</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>38991</v>
-      </c>
-      <c r="B124">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125">
         <v>2594.52</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <v>344.15499999999997</v>
       </c>
-      <c r="D124">
+      <c r="D125">
         <v>341.36900000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>39022</v>
-      </c>
-      <c r="B125">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126">
         <v>2602.56</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <v>346.74599999999998</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>342.15899999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>39052</v>
-      </c>
-      <c r="B126">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127">
         <v>2615.0500000000002</v>
       </c>
-      <c r="C126">
+      <c r="C127">
         <v>347.84199999999998</v>
       </c>
-      <c r="D126">
+      <c r="D127">
         <v>343.40100000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>39083</v>
-      </c>
-      <c r="B127">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128">
         <v>2626.56</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <v>349.59300000000002</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>344.94299999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>39114</v>
-      </c>
-      <c r="B128">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129">
         <v>2638.12</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <v>350.524</v>
       </c>
-      <c r="D128">
+      <c r="D129">
         <v>345.68200000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>39142</v>
-      </c>
-      <c r="B129">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130">
         <v>2647.88</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>351.71699999999998</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>346.61700000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>39173</v>
-      </c>
-      <c r="B130">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131">
         <v>2654.5</v>
       </c>
-      <c r="C130">
+      <c r="C131">
         <v>351.86900000000003</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>348.19400000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>39203</v>
-      </c>
-      <c r="B131">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132">
         <v>2661.93</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>352.02</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>352.20400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>39234</v>
-      </c>
-      <c r="B132">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
         <v>2669.38</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>352.93599999999998</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <v>355.45600000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>39264</v>
-      </c>
-      <c r="B133">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134">
         <v>2675.79</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <v>353.92</v>
       </c>
-      <c r="D133">
+      <c r="D134">
         <v>356.54500000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>39295</v>
-      </c>
-      <c r="B134">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135">
         <v>2688.37</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <v>357.404</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>357.46699999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>39326</v>
-      </c>
-      <c r="B135">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136">
         <v>2693.21</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>361.99700000000001</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>359.27600000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>39356</v>
-      </c>
-      <c r="B136">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137">
         <v>2701.29</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <v>365.79399999999998</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <v>361.10199999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>39387</v>
-      </c>
-      <c r="B137">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138">
         <v>2711.55</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>368.334</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <v>362.40300000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>39417</v>
-      </c>
-      <c r="B138">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139">
         <v>2731.62</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <v>374.815</v>
       </c>
-      <c r="D138">
+      <c r="D139">
         <v>364.52499999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>39448</v>
-      </c>
-      <c r="B139">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140">
         <v>2746.37</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <v>378.9</v>
       </c>
-      <c r="D139">
+      <c r="D140">
         <v>365.90600000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>39479</v>
-      </c>
-      <c r="B140">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
         <v>2759.83</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>380.90600000000001</v>
       </c>
-      <c r="D140">
+      <c r="D141">
         <v>367.38200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>39508</v>
-      </c>
-      <c r="B141">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142">
         <v>2773.08</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <v>383.73099999999999</v>
       </c>
-      <c r="D141">
+      <c r="D142">
         <v>369.81200000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>39539</v>
-      </c>
-      <c r="B142">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143">
         <v>2788.33</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <v>386.38</v>
       </c>
-      <c r="D142">
+      <c r="D143">
         <v>373.03100000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>39569</v>
-      </c>
-      <c r="B143">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144">
         <v>2810.36</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <v>392.59199999999998</v>
       </c>
-      <c r="D143">
+      <c r="D144">
         <v>380.58199999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>39600</v>
-      </c>
-      <c r="B144">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145">
         <v>2831.16</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <v>400.38200000000001</v>
       </c>
-      <c r="D144">
+      <c r="D145">
         <v>387.90600000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>39630</v>
-      </c>
-      <c r="B145">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146">
         <v>2846.16</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <v>407.44600000000003</v>
       </c>
-      <c r="D145">
+      <c r="D146">
         <v>393.55599999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>39661</v>
-      </c>
-      <c r="B146">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147">
         <v>2854.13</v>
       </c>
-      <c r="C146">
+      <c r="C147">
         <v>406.12700000000001</v>
       </c>
-      <c r="D146">
+      <c r="D147">
         <v>398.202</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>39692</v>
-      </c>
-      <c r="B147">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148">
         <v>2861.55</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <v>406.55700000000002</v>
       </c>
-      <c r="D147">
+      <c r="D148">
         <v>401.97500000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>39722</v>
-      </c>
-      <c r="B148">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149">
         <v>2874.43</v>
       </c>
-      <c r="C148">
+      <c r="C149">
         <v>410.524</v>
       </c>
-      <c r="D148">
+      <c r="D149">
         <v>405.09</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>39753</v>
-      </c>
-      <c r="B149">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150">
         <v>2884.78</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>412.10399999999998</v>
       </c>
-      <c r="D149">
+      <c r="D150">
         <v>407.10899999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>39783</v>
-      </c>
-      <c r="B150">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151">
         <v>2892.86</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <v>411.57499999999999</v>
       </c>
-      <c r="D150">
+      <c r="D151">
         <v>407.80700000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>39814</v>
-      </c>
-      <c r="B151">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152">
         <v>2906.74</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>409.78199999999998</v>
       </c>
-      <c r="D151">
+      <c r="D152">
         <v>409.166</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>39845</v>
-      </c>
-      <c r="B152">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153">
         <v>2922.73</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>410.84899999999999</v>
       </c>
-      <c r="D152">
+      <c r="D153">
         <v>410.262</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>39873</v>
-      </c>
-      <c r="B153">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
         <v>2928.57</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <v>407.80799999999999</v>
       </c>
-      <c r="D153">
+      <c r="D154">
         <v>409.21600000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>39904</v>
-      </c>
-      <c r="B154">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
         <v>2942.63</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <v>407.18099999999998</v>
       </c>
-      <c r="D154">
+      <c r="D155">
         <v>409.04199999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>39934</v>
-      </c>
-      <c r="B155">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
         <v>2956.46</v>
       </c>
-      <c r="C155">
+      <c r="C156">
         <v>406.88499999999999</v>
       </c>
-      <c r="D155">
+      <c r="D156">
         <v>414.74200000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>39965</v>
-      </c>
-      <c r="B156">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
         <v>2967.1</v>
       </c>
-      <c r="C156">
+      <c r="C157">
         <v>406.48599999999999</v>
       </c>
-      <c r="D156">
+      <c r="D157">
         <v>417.65699999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>39995</v>
-      </c>
-      <c r="B157">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
         <v>2974.22</v>
       </c>
-      <c r="C157">
+      <c r="C158">
         <v>404.71800000000002</v>
       </c>
-      <c r="D157">
+      <c r="D158">
         <v>418.75700000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>40026</v>
-      </c>
-      <c r="B158">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
         <v>2978.68</v>
       </c>
-      <c r="C158">
+      <c r="C159">
         <v>403.25299999999999</v>
       </c>
-      <c r="D158">
+      <c r="D159">
         <v>418.52800000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>40057</v>
-      </c>
-      <c r="B159">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
         <v>2985.83</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <v>404.94499999999999</v>
       </c>
-      <c r="D159">
+      <c r="D160">
         <v>419.14699999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>40087</v>
-      </c>
-      <c r="B160">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161">
         <v>2994.19</v>
       </c>
-      <c r="C160">
+      <c r="C161">
         <v>405.12900000000002</v>
       </c>
-      <c r="D160">
+      <c r="D161">
         <v>419.40499999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>40118</v>
-      </c>
-      <c r="B161">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
         <v>3006.47</v>
       </c>
-      <c r="C161">
+      <c r="C162">
         <v>405.548</v>
       </c>
-      <c r="D161">
+      <c r="D162">
         <v>420.63499999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>40148</v>
-      </c>
-      <c r="B162">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163">
         <v>3017.59</v>
       </c>
-      <c r="C162">
+      <c r="C163">
         <v>404.49900000000002</v>
       </c>
-      <c r="D162">
+      <c r="D163">
         <v>421.05099999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>40179</v>
-      </c>
-      <c r="B163">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
         <v>3040.22</v>
       </c>
-      <c r="C163">
+      <c r="C164">
         <v>407.04899999999998</v>
       </c>
-      <c r="D163">
+      <c r="D164">
         <v>423.74</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>40210</v>
-      </c>
-      <c r="B164">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
         <v>3063.93</v>
       </c>
-      <c r="C164">
+      <c r="C165">
         <v>411.84300000000002</v>
       </c>
-      <c r="D164">
+      <c r="D165">
         <v>425.26799999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>40238</v>
-      </c>
-      <c r="B165">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
         <v>3079.86</v>
       </c>
-      <c r="C165">
+      <c r="C166">
         <v>415.73399999999998</v>
       </c>
-      <c r="D165">
+      <c r="D166">
         <v>428.476</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>40269</v>
-      </c>
-      <c r="B166">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
         <v>3097.42</v>
       </c>
-      <c r="C166">
+      <c r="C167">
         <v>418.91699999999997</v>
       </c>
-      <c r="D166">
+      <c r="D167">
         <v>432.07900000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>40299</v>
-      </c>
-      <c r="B167">
-        <v>3110.74</v>
-      </c>
-      <c r="C167">
-        <v>423.88499999999999</v>
-      </c>
-      <c r="D167">
-        <v>439.91399999999999</v>
-      </c>
-    </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>40330</v>
+      <c r="A168" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B168">
         <v>3110.74</v>
       </c>
       <c r="C168">
+        <v>423.88499999999999</v>
+      </c>
+      <c r="D168">
+        <v>439.91399999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>3110.74</v>
+      </c>
+      <c r="C169">
         <v>427.48899999999998</v>
       </c>
-      <c r="D168">
+      <c r="D169">
         <v>444.71800000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>40360</v>
-      </c>
-      <c r="B169">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
         <v>3111.05</v>
       </c>
-      <c r="C169">
+      <c r="C170">
         <v>428.15</v>
       </c>
-      <c r="D169">
+      <c r="D170">
         <v>446.68799999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>40391</v>
-      </c>
-      <c r="B170">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
         <v>3112.29</v>
       </c>
-      <c r="C170">
+      <c r="C171">
         <v>431.44499999999999</v>
       </c>
-      <c r="D170">
+      <c r="D171">
         <v>447.29599999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>40422</v>
-      </c>
-      <c r="B171">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
         <v>3126.29</v>
       </c>
-      <c r="C171">
+      <c r="C172">
         <v>436.423</v>
       </c>
-      <c r="D171">
+      <c r="D172">
         <v>448.22199999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>40452</v>
-      </c>
-      <c r="B172">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
         <v>3149.74</v>
       </c>
-      <c r="C172">
+      <c r="C173">
         <v>440.82900000000001</v>
       </c>
-      <c r="D172">
+      <c r="D173">
         <v>449.10300000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>40483</v>
-      </c>
-      <c r="B173">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
         <v>3175.88</v>
       </c>
-      <c r="C173">
+      <c r="C174">
         <v>447.20600000000002</v>
       </c>
-      <c r="D173">
+      <c r="D174">
         <v>450.76299999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>40513</v>
-      </c>
-      <c r="B174">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
         <v>3195.89</v>
       </c>
-      <c r="C174">
+      <c r="C175">
         <v>450.30099999999999</v>
       </c>
-      <c r="D174">
+      <c r="D175">
         <v>453.76600000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>40544</v>
-      </c>
-      <c r="B175">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
         <v>3222.42</v>
       </c>
-      <c r="C175">
+      <c r="C176">
         <v>453.875</v>
       </c>
-      <c r="D175">
+      <c r="D176">
         <v>455.61900000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>40575</v>
-      </c>
-      <c r="B176">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
         <v>3248.2</v>
       </c>
-      <c r="C176">
+      <c r="C177">
         <v>458.39699999999999</v>
       </c>
-      <c r="D176">
+      <c r="D177">
         <v>456.91699999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>40603</v>
-      </c>
-      <c r="B177">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
         <v>3273.86</v>
       </c>
-      <c r="C177">
+      <c r="C178">
         <v>461.24900000000002</v>
       </c>
-      <c r="D177">
+      <c r="D178">
         <v>458.887</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>40634</v>
-      </c>
-      <c r="B178">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
         <v>3299.07</v>
       </c>
-      <c r="C178">
+      <c r="C179">
         <v>463.31099999999998</v>
       </c>
-      <c r="D178">
+      <c r="D179">
         <v>463.76600000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>40664</v>
-      </c>
-      <c r="B179">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
         <v>3314.58</v>
       </c>
-      <c r="C179">
+      <c r="C180">
         <v>465.31099999999998</v>
       </c>
-      <c r="D179">
+      <c r="D180">
         <v>477.40499999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>40695</v>
-      </c>
-      <c r="B180">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
         <v>3319.55</v>
       </c>
-      <c r="C180">
+      <c r="C181">
         <v>464.46300000000002</v>
       </c>
-      <c r="D180">
+      <c r="D181">
         <v>479.18299999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>40725</v>
-      </c>
-      <c r="B181">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
         <v>3324.86</v>
       </c>
-      <c r="C181">
+      <c r="C182">
         <v>463.92700000000002</v>
       </c>
-      <c r="D181">
+      <c r="D182">
         <v>481.33</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>40756</v>
-      </c>
-      <c r="B182">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
         <v>3337.16</v>
       </c>
-      <c r="C182">
+      <c r="C183">
         <v>465.96800000000002</v>
       </c>
-      <c r="D182">
+      <c r="D183">
         <v>481.96600000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>40787</v>
-      </c>
-      <c r="B183">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184">
         <v>3354.85</v>
       </c>
-      <c r="C183">
+      <c r="C184">
         <v>468.97500000000002</v>
       </c>
-      <c r="D183">
+      <c r="D184">
         <v>482.65800000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>40817</v>
-      </c>
-      <c r="B184">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
         <v>3369.28</v>
       </c>
-      <c r="C184">
+      <c r="C185">
         <v>471.46600000000001</v>
       </c>
-      <c r="D184">
+      <c r="D185">
         <v>483.75799999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>40848</v>
-      </c>
-      <c r="B185">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186">
         <v>3386.8</v>
       </c>
-      <c r="C185">
+      <c r="C186">
         <v>473.80799999999999</v>
       </c>
-      <c r="D185">
+      <c r="D186">
         <v>487.221</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>40878</v>
-      </c>
-      <c r="B186">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187">
         <v>3403.73</v>
       </c>
-      <c r="C186">
+      <c r="C187">
         <v>473.25200000000001</v>
       </c>
-      <c r="D186">
+      <c r="D187">
         <v>487.74900000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>40909</v>
-      </c>
-      <c r="B187">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188">
         <v>3422.79</v>
       </c>
-      <c r="C187">
+      <c r="C188">
         <v>474.42899999999997</v>
       </c>
-      <c r="D187">
+      <c r="D188">
         <v>492.10599999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>40940</v>
-      </c>
-      <c r="B188">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189">
         <v>3438.19</v>
       </c>
-      <c r="C188">
+      <c r="C189">
         <v>474.13799999999998</v>
       </c>
-      <c r="D188">
+      <c r="D189">
         <v>493.584</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>40969</v>
-      </c>
-      <c r="B189">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190">
         <v>3445.41</v>
       </c>
-      <c r="C189">
+      <c r="C190">
         <v>476.166</v>
       </c>
-      <c r="D189">
+      <c r="D190">
         <v>496.07900000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>41000</v>
-      </c>
-      <c r="B190">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191">
         <v>3467.46</v>
       </c>
-      <c r="C190">
+      <c r="C191">
         <v>480.22899999999998</v>
       </c>
-      <c r="D190">
+      <c r="D191">
         <v>499.791</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>41030</v>
-      </c>
-      <c r="B191">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192">
         <v>3479.94</v>
       </c>
-      <c r="C191">
+      <c r="C192">
         <v>485.14</v>
       </c>
-      <c r="D191">
+      <c r="D192">
         <v>509.18400000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>41061</v>
-      </c>
-      <c r="B192">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193">
         <v>3482.72</v>
       </c>
-      <c r="C192">
+      <c r="C193">
         <v>488.34199999999998</v>
       </c>
-      <c r="D192">
+      <c r="D193">
         <v>512.90300000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>41091</v>
-      </c>
-      <c r="B193">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194">
         <v>3497.7</v>
       </c>
-      <c r="C193">
+      <c r="C194">
         <v>494.89100000000002</v>
       </c>
-      <c r="D193">
+      <c r="D194">
         <v>516.31799999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>41122</v>
-      </c>
-      <c r="B194">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195">
         <v>3512.04</v>
       </c>
-      <c r="C194">
+      <c r="C195">
         <v>501.95699999999999</v>
       </c>
-      <c r="D194">
+      <c r="D195">
         <v>517.65700000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>41153</v>
-      </c>
-      <c r="B195">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196">
         <v>3532.06</v>
       </c>
-      <c r="C195">
+      <c r="C196">
         <v>506.80399999999997</v>
       </c>
-      <c r="D195">
+      <c r="D196">
         <v>518.81600000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>41183</v>
-      </c>
-      <c r="B196">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197">
         <v>3552.9</v>
       </c>
-      <c r="C196">
+      <c r="C197">
         <v>506.92599999999999</v>
       </c>
-      <c r="D196">
+      <c r="D197">
         <v>519.90700000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>41214</v>
-      </c>
-      <c r="B197">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198">
         <v>3574.22</v>
       </c>
-      <c r="C197">
+      <c r="C198">
         <v>506.79500000000002</v>
       </c>
-      <c r="D197">
+      <c r="D198">
         <v>521.63800000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>41244</v>
-      </c>
-      <c r="B198">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199">
         <v>3602.46</v>
       </c>
-      <c r="C198">
+      <c r="C199">
         <v>510.25200000000001</v>
       </c>
-      <c r="D198">
+      <c r="D199">
         <v>522.47400000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>41275</v>
-      </c>
-      <c r="B199">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200">
         <v>3633.44</v>
       </c>
-      <c r="C199">
+      <c r="C200">
         <v>511.97699999999998</v>
       </c>
-      <c r="D199">
+      <c r="D200">
         <v>525.85</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>41306</v>
-      </c>
-      <c r="B200">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201">
         <v>3655.24</v>
       </c>
-      <c r="C200">
+      <c r="C201">
         <v>513.46699999999998</v>
       </c>
-      <c r="D200">
+      <c r="D201">
         <v>529.029</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>41334</v>
-      </c>
-      <c r="B201">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202">
         <v>3672.42</v>
       </c>
-      <c r="C201">
+      <c r="C202">
         <v>514.52599999999995</v>
       </c>
-      <c r="D201">
+      <c r="D202">
         <v>531.69100000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>41365</v>
-      </c>
-      <c r="B202">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203">
         <v>3692.62</v>
       </c>
-      <c r="C202">
+      <c r="C203">
         <v>515.27599999999995</v>
       </c>
-      <c r="D202">
+      <c r="D203">
         <v>535.601</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>41395</v>
-      </c>
-      <c r="B203">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204">
         <v>3706.28</v>
       </c>
-      <c r="C203">
+      <c r="C204">
         <v>515.29899999999998</v>
       </c>
-      <c r="D203">
+      <c r="D204">
         <v>547.65499999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>41426</v>
-      </c>
-      <c r="B204">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205">
         <v>3715.92</v>
       </c>
-      <c r="C204">
+      <c r="C205">
         <v>519.15300000000002</v>
       </c>
-      <c r="D204">
+      <c r="D205">
         <v>553.94799999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>41456</v>
-      </c>
-      <c r="B205">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206">
         <v>3717.03</v>
       </c>
-      <c r="C205">
+      <c r="C206">
         <v>520.50800000000004</v>
       </c>
-      <c r="D205">
+      <c r="D206">
         <v>556.6</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>41487</v>
-      </c>
-      <c r="B206">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207">
         <v>3725.95</v>
       </c>
-      <c r="C206">
+      <c r="C207">
         <v>521.27</v>
       </c>
-      <c r="D206">
+      <c r="D207">
         <v>558.34</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>41518</v>
-      </c>
-      <c r="B207">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208">
         <v>3738.99</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <v>529.08500000000004</v>
       </c>
-      <c r="D207">
+      <c r="D208">
         <v>560.76700000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>41548</v>
-      </c>
-      <c r="B208">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209">
         <v>3760.3</v>
       </c>
-      <c r="C208">
+      <c r="C209">
         <v>533.62099999999998</v>
       </c>
-      <c r="D208">
+      <c r="D209">
         <v>562.24099999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>41579</v>
-      </c>
-      <c r="B209">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210">
         <v>3780.61</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <v>535.16800000000001</v>
       </c>
-      <c r="D209">
+      <c r="D210">
         <v>564.20100000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>41609</v>
-      </c>
-      <c r="B210">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211">
         <v>3815.39</v>
       </c>
-      <c r="C210">
+      <c r="C211">
         <v>538.37</v>
       </c>
-      <c r="D210">
+      <c r="D211">
         <v>564.76499999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>41640</v>
-      </c>
-      <c r="B211">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212">
         <v>3836.37</v>
       </c>
-      <c r="C211">
+      <c r="C212">
         <v>540.95899999999995</v>
       </c>
-      <c r="D211">
+      <c r="D212">
         <v>569.72</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>41671</v>
-      </c>
-      <c r="B212">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213">
         <v>3862.84</v>
       </c>
-      <c r="C212">
+      <c r="C213">
         <v>543.03800000000001</v>
       </c>
-      <c r="D212">
+      <c r="D213">
         <v>571.577</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>41699</v>
-      </c>
-      <c r="B213">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214">
         <v>3898.38</v>
       </c>
-      <c r="C213">
+      <c r="C214">
         <v>552.08699999999999</v>
       </c>
-      <c r="D213">
+      <c r="D214">
         <v>573.15599999999995</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>41730</v>
-      </c>
-      <c r="B214">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215">
         <v>3924.5</v>
       </c>
-      <c r="C214">
+      <c r="C215">
         <v>556.41999999999996</v>
       </c>
-      <c r="D214">
+      <c r="D215">
         <v>578.22400000000005</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>41760</v>
-      </c>
-      <c r="B215">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216">
         <v>3942.55</v>
       </c>
-      <c r="C215">
+      <c r="C216">
         <v>555.67899999999997</v>
       </c>
-      <c r="D215">
+      <c r="D216">
         <v>590.09900000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>41791</v>
-      </c>
-      <c r="B216">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217">
         <v>3958.32</v>
       </c>
-      <c r="C216">
+      <c r="C217">
         <v>551.55399999999997</v>
       </c>
-      <c r="D216">
+      <c r="D217">
         <v>594.01300000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>41821</v>
-      </c>
-      <c r="B217">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218">
         <v>3958.72</v>
       </c>
-      <c r="C217">
+      <c r="C218">
         <v>548.202</v>
       </c>
-      <c r="D217">
+      <c r="D218">
         <v>598.44100000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>41852</v>
-      </c>
-      <c r="B218">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219">
         <v>3968.62</v>
       </c>
-      <c r="C218">
+      <c r="C219">
         <v>546.745</v>
       </c>
-      <c r="D218">
+      <c r="D219">
         <v>598.89800000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>41883</v>
-      </c>
-      <c r="B219">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220">
         <v>3991.24</v>
       </c>
-      <c r="C219">
+      <c r="C220">
         <v>547.83900000000006</v>
       </c>
-      <c r="D219">
+      <c r="D220">
         <v>599.82299999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>41913</v>
-      </c>
-      <c r="B220">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221">
         <v>4008</v>
       </c>
-      <c r="C220">
+      <c r="C221">
         <v>549.39599999999996</v>
       </c>
-      <c r="D220">
+      <c r="D221">
         <v>600.86500000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>41944</v>
-      </c>
-      <c r="B221">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222">
         <v>4028.44</v>
       </c>
-      <c r="C221">
+      <c r="C222">
         <v>554.76900000000001</v>
       </c>
-      <c r="D221">
+      <c r="D222">
         <v>603.524</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>41974</v>
-      </c>
-      <c r="B222">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B223">
         <v>4059.86</v>
       </c>
-      <c r="C222">
+      <c r="C223">
         <v>558.21299999999997</v>
       </c>
-      <c r="D222">
+      <c r="D223">
         <v>604.02599999999995</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
-        <v>42005</v>
-      </c>
-      <c r="B223">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224">
         <v>4110.2</v>
       </c>
-      <c r="C223">
+      <c r="C224">
         <v>562.48199999999997</v>
       </c>
-      <c r="D223">
+      <c r="D224">
         <v>609.56799999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
-        <v>42036</v>
-      </c>
-      <c r="B224">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B225">
         <v>4160.34</v>
       </c>
-      <c r="C224">
+      <c r="C225">
         <v>564.00400000000002</v>
       </c>
-      <c r="D224">
+      <c r="D225">
         <v>611.447</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>42064</v>
-      </c>
-      <c r="B225">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226">
         <v>4215.26</v>
       </c>
-      <c r="C225">
+      <c r="C226">
         <v>569.53599999999994</v>
       </c>
-      <c r="D225">
+      <c r="D226">
         <v>615.24800000000005</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
-        <v>42095</v>
-      </c>
-      <c r="B226">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227">
         <v>4245.1899999999996</v>
       </c>
-      <c r="C226">
+      <c r="C227">
         <v>576.17499999999995</v>
       </c>
-      <c r="D226">
+      <c r="D227">
         <v>618.05999999999995</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
-        <v>42125</v>
-      </c>
-      <c r="B227">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228">
         <v>4276.6000000000004</v>
       </c>
-      <c r="C227">
+      <c r="C228">
         <v>578.51599999999996</v>
       </c>
-      <c r="D227">
+      <c r="D228">
         <v>623.95100000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
-        <v>42156</v>
-      </c>
-      <c r="B228">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229">
         <v>4310.3900000000003</v>
       </c>
-      <c r="C228">
+      <c r="C229">
         <v>582.40099999999995</v>
       </c>
-      <c r="D228">
+      <c r="D229">
         <v>635.40300000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
-        <v>42186</v>
-      </c>
-      <c r="B229">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230">
         <v>4337.1099999999997</v>
       </c>
-      <c r="C229">
+      <c r="C230">
         <v>586.42600000000004</v>
       </c>
-      <c r="D229">
+      <c r="D230">
         <v>638.88</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
-        <v>42217</v>
-      </c>
-      <c r="B230">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231">
         <v>4346.6499999999996</v>
       </c>
-      <c r="C230">
+      <c r="C231">
         <v>588.04200000000003</v>
       </c>
-      <c r="D230">
+      <c r="D231">
         <v>642.64400000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>42248</v>
-      </c>
-      <c r="B231">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232">
         <v>4370.12</v>
       </c>
-      <c r="C231">
+      <c r="C232">
         <v>593.60599999999999</v>
       </c>
-      <c r="D231">
+      <c r="D232">
         <v>644.04600000000005</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
-        <v>42278</v>
-      </c>
-      <c r="B232">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233">
         <v>4405.95</v>
       </c>
-      <c r="C232">
+      <c r="C233">
         <v>604.83199999999999</v>
       </c>
-      <c r="D232">
+      <c r="D233">
         <v>646.35500000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
-        <v>42309</v>
-      </c>
-      <c r="B233">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234">
         <v>4450.45</v>
       </c>
-      <c r="C233">
+      <c r="C234">
         <v>614.05100000000004</v>
       </c>
-      <c r="D233">
+      <c r="D234">
         <v>648.54200000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
-        <v>42339</v>
-      </c>
-      <c r="B234">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B235">
         <v>4493.17</v>
       </c>
-      <c r="C234">
+      <c r="C235">
         <v>617.04399999999998</v>
       </c>
-      <c r="D234">
+      <c r="D235">
         <v>649.21600000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B235">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236">
         <v>4550.2299999999996</v>
       </c>
-      <c r="C235">
+      <c r="C236">
         <v>624.05999999999995</v>
       </c>
-      <c r="D235">
+      <c r="D236">
         <v>651.75900000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>42401</v>
-      </c>
-      <c r="B236">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237">
         <v>4591.18</v>
       </c>
-      <c r="C236">
+      <c r="C237">
         <v>632.11400000000003</v>
       </c>
-      <c r="D236">
+      <c r="D237">
         <v>655.26300000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
-        <v>42430</v>
-      </c>
-      <c r="B237">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238">
         <v>4610.92</v>
       </c>
-      <c r="C237">
+      <c r="C238">
         <v>635.34900000000005</v>
       </c>
-      <c r="D237">
+      <c r="D238">
         <v>659.44600000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>42461</v>
-      </c>
-      <c r="B238">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239">
         <v>4639.05</v>
       </c>
-      <c r="C238">
+      <c r="C239">
         <v>637.43399999999997</v>
       </c>
-      <c r="D238">
+      <c r="D239">
         <v>663.05700000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>42491</v>
-      </c>
-      <c r="B239">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240">
         <v>4675.2299999999996</v>
       </c>
-      <c r="C239">
+      <c r="C240">
         <v>642.65099999999995</v>
       </c>
-      <c r="D239">
+      <c r="D240">
         <v>663.61</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
-        <v>42522</v>
-      </c>
-      <c r="B240">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241">
         <v>4691.59</v>
       </c>
-      <c r="C240">
+      <c r="C241">
         <v>653.49599999999998</v>
       </c>
-      <c r="D240">
+      <c r="D241">
         <v>676.42</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
-        <v>42552</v>
-      </c>
-      <c r="B241">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242">
         <v>4715.99</v>
       </c>
-      <c r="C241">
+      <c r="C242">
         <v>654.64099999999996</v>
       </c>
-      <c r="D241">
+      <c r="D242">
         <v>679.75099999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>42583</v>
-      </c>
-      <c r="B242">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243">
         <v>4736.74</v>
       </c>
-      <c r="C242">
+      <c r="C243">
         <v>655.60199999999998</v>
       </c>
-      <c r="D242">
+      <c r="D243">
         <v>681.75599999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
-        <v>42614</v>
-      </c>
-      <c r="B243">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244">
         <v>4740.53</v>
       </c>
-      <c r="C243">
+      <c r="C244">
         <v>656.89400000000001</v>
       </c>
-      <c r="D243">
+      <c r="D244">
         <v>684.02499999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>42644</v>
-      </c>
-      <c r="B244">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245">
         <v>4752.8599999999997</v>
       </c>
-      <c r="C244">
+      <c r="C245">
         <v>657.92700000000002</v>
       </c>
-      <c r="D244">
+      <c r="D245">
         <v>685.48900000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>42675</v>
-      </c>
-      <c r="B245">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246">
         <v>4761.42</v>
       </c>
-      <c r="C245">
+      <c r="C246">
         <v>657.75199999999995</v>
       </c>
-      <c r="D245">
+      <c r="D246">
         <v>686.60699999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>42705</v>
-      </c>
-      <c r="B246">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247">
         <v>4775.7</v>
       </c>
-      <c r="C246">
+      <c r="C247">
         <v>661.30399999999997</v>
       </c>
-      <c r="D246">
+      <c r="D247">
         <v>688.98500000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B247">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248">
         <v>4793.8500000000004</v>
       </c>
-      <c r="C247">
+      <c r="C248">
         <v>665.54200000000003</v>
       </c>
-      <c r="D247">
+      <c r="D248">
         <v>691.79200000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>42767</v>
-      </c>
-      <c r="B248">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249">
         <v>4809.67</v>
       </c>
-      <c r="C248">
+      <c r="C249">
         <v>666.09900000000005</v>
       </c>
-      <c r="D248">
+      <c r="D249">
         <v>696.31399999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>42795</v>
-      </c>
-      <c r="B249">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250">
         <v>4821.6899999999996</v>
       </c>
-      <c r="C249">
+      <c r="C250">
         <v>666.197</v>
       </c>
-      <c r="D249">
+      <c r="D250">
         <v>697.41</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
-        <v>42826</v>
-      </c>
-      <c r="B250">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251">
         <v>4828.4399999999996</v>
       </c>
-      <c r="C250">
+      <c r="C251">
         <v>658.89800000000002</v>
       </c>
-      <c r="D250">
+      <c r="D251">
         <v>697.24400000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
-        <v>42856</v>
-      </c>
-      <c r="B251">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252">
         <v>4843.41</v>
       </c>
-      <c r="C251">
+      <c r="C252">
         <v>652.75800000000004</v>
       </c>
-      <c r="D251">
+      <c r="D252">
         <v>701.66399999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B252">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253">
         <v>4832.2700000000004</v>
       </c>
-      <c r="C252">
+      <c r="C253">
         <v>648.40899999999999</v>
       </c>
-      <c r="D252">
+      <c r="D253">
         <v>708.197</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
-        <v>42917</v>
-      </c>
-      <c r="B253">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254">
         <v>4843.87</v>
       </c>
-      <c r="C253">
+      <c r="C254">
         <v>643.76599999999996</v>
       </c>
-      <c r="D253">
+      <c r="D254">
         <v>710.35500000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
-        <v>42948</v>
-      </c>
-      <c r="B254">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255">
         <v>4853.07</v>
       </c>
-      <c r="C254">
+      <c r="C255">
         <v>644.38300000000004</v>
       </c>
-      <c r="D254">
+      <c r="D255">
         <v>712.88400000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
-        <v>42979</v>
-      </c>
-      <c r="B255">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256">
         <v>4860.83</v>
       </c>
-      <c r="C255">
+      <c r="C256">
         <v>647.4</v>
       </c>
-      <c r="D255">
+      <c r="D256">
         <v>713.33</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
-        <v>43009</v>
-      </c>
-      <c r="B256">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257">
         <v>4881.25</v>
       </c>
-      <c r="C256">
+      <c r="C257">
         <v>648.67200000000003</v>
       </c>
-      <c r="D256">
+      <c r="D257">
         <v>715.52700000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
-        <v>43040</v>
-      </c>
-      <c r="B257">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258">
         <v>4894.92</v>
       </c>
-      <c r="C257">
+      <c r="C258">
         <v>652.07299999999998</v>
       </c>
-      <c r="D257">
+      <c r="D258">
         <v>717.75099999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B258">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B259">
         <v>4916.46</v>
       </c>
-      <c r="C258">
+      <c r="C259">
         <v>657.85900000000004</v>
       </c>
-      <c r="D258">
+      <c r="D259">
         <v>718.27599999999995</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
-        <v>43101</v>
-      </c>
-      <c r="B259">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260">
         <v>4930.72</v>
       </c>
-      <c r="C259">
+      <c r="C260">
         <v>662.82600000000002</v>
       </c>
-      <c r="D259">
+      <c r="D260">
         <v>720.495</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
-        <v>43132</v>
-      </c>
-      <c r="B260">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B261">
         <v>4946.5</v>
       </c>
-      <c r="C260">
+      <c r="C261">
         <v>663.31100000000004</v>
       </c>
-      <c r="D260">
+      <c r="D261">
         <v>721.41399999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
-        <v>43160</v>
-      </c>
-      <c r="B261">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B262">
         <v>4950.95</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>667.524</v>
       </c>
-      <c r="D261">
+      <c r="D262">
         <v>723.16300000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>43191</v>
-      </c>
-      <c r="B262">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263">
         <v>4961.84</v>
       </c>
-      <c r="C262">
+      <c r="C263">
         <v>671.327</v>
       </c>
-      <c r="D262">
+      <c r="D263">
         <v>725.245</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
-        <v>43221</v>
-      </c>
-      <c r="B263">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B264">
         <v>4981.6899999999996</v>
       </c>
-      <c r="C263">
+      <c r="C264">
         <v>680.57899999999995</v>
       </c>
-      <c r="D263">
+      <c r="D264">
         <v>726.923</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B264">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B265">
         <v>5044.46</v>
       </c>
-      <c r="C264">
+      <c r="C265">
         <v>693.28700000000003</v>
       </c>
-      <c r="D264">
+      <c r="D265">
         <v>733.98400000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
-        <v>43282</v>
-      </c>
-      <c r="B265">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266">
         <v>5061.1099999999997</v>
       </c>
-      <c r="C265">
+      <c r="C266">
         <v>696.8</v>
       </c>
-      <c r="D265">
+      <c r="D266">
         <v>738.48699999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
-        <v>43313</v>
-      </c>
-      <c r="B266">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267">
         <v>5056.5600000000004</v>
       </c>
-      <c r="C266">
+      <c r="C267">
         <v>701.67700000000002</v>
       </c>
-      <c r="D266">
+      <c r="D267">
         <v>739.58299999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B267">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268">
         <v>5080.83</v>
       </c>
-      <c r="C267">
+      <c r="C268">
         <v>712.37300000000005</v>
       </c>
-      <c r="D267">
+      <c r="D268">
         <v>741.30499999999995</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
-        <v>43374</v>
-      </c>
-      <c r="B268">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269">
         <v>5103.6899999999996</v>
       </c>
-      <c r="C268">
+      <c r="C269">
         <v>718.68399999999997</v>
       </c>
-      <c r="D268">
+      <c r="D269">
         <v>743.86599999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B269">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270">
         <v>5092.97</v>
       </c>
-      <c r="C269">
+      <c r="C270">
         <v>715.16600000000005</v>
       </c>
-      <c r="D269">
+      <c r="D270">
         <v>744.86500000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B270">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271">
         <v>5100.6099999999997</v>
       </c>
-      <c r="C270">
+      <c r="C271">
         <v>707.44100000000003</v>
       </c>
-      <c r="D270">
+      <c r="D271">
         <v>745.85599999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B271">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272">
         <v>5116.93</v>
       </c>
-      <c r="C271">
+      <c r="C272">
         <v>707.48800000000006</v>
       </c>
-      <c r="D271">
+      <c r="D272">
         <v>749.51700000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
-        <v>43497</v>
-      </c>
-      <c r="B272">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273">
         <v>5138.93</v>
       </c>
-      <c r="C272">
+      <c r="C273">
         <v>713.74699999999996</v>
       </c>
-      <c r="D272">
+      <c r="D273">
         <v>750.18</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
-        <v>43525</v>
-      </c>
-      <c r="B273">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274">
         <v>5177.47</v>
       </c>
-      <c r="C273">
+      <c r="C274">
         <v>722.70699999999999</v>
       </c>
-      <c r="D273">
+      <c r="D274">
         <v>752.524</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
-        <v>43556</v>
-      </c>
-      <c r="B274">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275">
         <v>5206.9799999999996</v>
       </c>
-      <c r="C274">
+      <c r="C275">
         <v>729.346</v>
       </c>
-      <c r="D274">
+      <c r="D275">
         <v>755.37300000000005</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
-        <v>43586</v>
-      </c>
-      <c r="B275">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276">
         <v>5213.75</v>
       </c>
-      <c r="C275">
+      <c r="C276">
         <v>732.59500000000003</v>
       </c>
-      <c r="D275">
+      <c r="D276">
         <v>755.625</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
-        <v>43617</v>
-      </c>
-      <c r="B276">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B277">
         <v>5214.2700000000004</v>
       </c>
-      <c r="C276">
+      <c r="C277">
         <v>738.42100000000005</v>
       </c>
-      <c r="D276">
+      <c r="D277">
         <v>762.30399999999997</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B277">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B278">
         <v>5224.18</v>
       </c>
-      <c r="C277">
+      <c r="C278">
         <v>741.346</v>
       </c>
-      <c r="D277">
+      <c r="D278">
         <v>766.69899999999996</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
-        <v>43678</v>
-      </c>
-      <c r="B278">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B279">
         <v>5229.93</v>
       </c>
-      <c r="C278">
+      <c r="C279">
         <v>736.40200000000004</v>
       </c>
-      <c r="D278">
+      <c r="D279">
         <v>769.95100000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B279">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280">
         <v>5227.84</v>
       </c>
-      <c r="C279">
+      <c r="C280">
         <v>736.36199999999997</v>
       </c>
-      <c r="D279">
+      <c r="D280">
         <v>773.52</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B280">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281">
         <v>5233.07</v>
       </c>
-      <c r="C280">
+      <c r="C281">
         <v>741.33299999999997</v>
       </c>
-      <c r="D280">
+      <c r="D281">
         <v>774.93899999999996</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>43770</v>
-      </c>
-      <c r="B281">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B282">
         <v>5259.76</v>
       </c>
-      <c r="C281">
+      <c r="C282">
         <v>743.55799999999999</v>
       </c>
-      <c r="D281">
+      <c r="D282">
         <v>775.22500000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B282">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283">
         <v>5320.25</v>
       </c>
-      <c r="C282">
+      <c r="C283">
         <v>759.11199999999997</v>
       </c>
-      <c r="D282">
+      <c r="D283">
         <v>776.83900000000006</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B283">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B284">
         <v>5331.42</v>
       </c>
-      <c r="C283">
+      <c r="C284">
         <v>762.73299999999995</v>
       </c>
-      <c r="D283">
+      <c r="D284">
         <v>779.76599999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B284">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285">
         <v>5344.75</v>
       </c>
-      <c r="C284">
+      <c r="C285">
         <v>762.423</v>
       </c>
-      <c r="D284">
+      <c r="D285">
         <v>782.33600000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B285">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B286">
         <v>5348.49</v>
       </c>
-      <c r="C285">
+      <c r="C286">
         <v>771.90800000000002</v>
       </c>
-      <c r="D285">
+      <c r="D286">
         <v>784.33799999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B286">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B287">
         <v>5331.91</v>
       </c>
-      <c r="C286">
+      <c r="C287">
         <v>778.101</v>
       </c>
-      <c r="D286">
+      <c r="D287">
         <v>786.07</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B287">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288">
         <v>5311.65</v>
       </c>
-      <c r="C287">
+      <c r="C288">
         <v>780.28</v>
       </c>
-      <c r="D287">
+      <c r="D288">
         <v>787.66600000000005</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B288">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B289">
         <v>5325.46</v>
       </c>
-      <c r="C288">
+      <c r="C289">
         <v>792.42899999999997</v>
       </c>
-      <c r="D288">
+      <c r="D289">
         <v>790.33100000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
-        <v>44013</v>
-      </c>
-      <c r="B289">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B290">
         <v>5344.63</v>
       </c>
-      <c r="C289">
+      <c r="C290">
         <v>810.08299999999997</v>
       </c>
-      <c r="D289">
+      <c r="D290">
         <v>799.58900000000006</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
-        <v>44044</v>
-      </c>
-      <c r="B290">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B291">
         <v>5357.46</v>
       </c>
-      <c r="C290">
+      <c r="C291">
         <v>832.31299999999999</v>
       </c>
-      <c r="D290">
+      <c r="D291">
         <v>805.35599999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
-        <v>44075</v>
-      </c>
-      <c r="B291">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B292">
         <v>5391.75</v>
       </c>
-      <c r="C291">
+      <c r="C292">
         <v>868.44200000000001</v>
       </c>
-      <c r="D291">
+      <c r="D292">
         <v>814.70100000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
-        <v>44105</v>
-      </c>
-      <c r="B292">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B293">
         <v>5438.12</v>
       </c>
-      <c r="C292">
+      <c r="C293">
         <v>896.505</v>
       </c>
-      <c r="D292">
+      <c r="D293">
         <v>828.77800000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>44136</v>
-      </c>
-      <c r="B293">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B294">
         <v>5486.52</v>
       </c>
-      <c r="C293">
+      <c r="C294">
         <v>925.88699999999994</v>
       </c>
-      <c r="D293">
+      <c r="D294">
         <v>839.38199999999995</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>44166</v>
-      </c>
-      <c r="B294">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B295">
         <v>5560.59</v>
       </c>
-      <c r="C294">
+      <c r="C295">
         <v>934.75800000000004</v>
       </c>
-      <c r="D294">
+      <c r="D295">
         <v>845.26800000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B295">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B296">
         <v>5574.49</v>
       </c>
-      <c r="C295">
+      <c r="C296">
         <v>958.84400000000005</v>
       </c>
-      <c r="D295">
+      <c r="D296">
         <v>852.80899999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>44228</v>
-      </c>
-      <c r="B296">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B297">
         <v>5622.43</v>
       </c>
-      <c r="C296">
+      <c r="C297">
         <v>983.06299999999999</v>
       </c>
-      <c r="D296">
+      <c r="D297">
         <v>868.92899999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B297">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B298">
         <v>5674.72</v>
       </c>
-      <c r="C297">
+      <c r="C298">
         <v>1011.948</v>
       </c>
-      <c r="D297">
+      <c r="D298">
         <v>880.26499999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>44287</v>
-      </c>
-      <c r="B298">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B299">
         <v>5692.31</v>
       </c>
-      <c r="C298">
+      <c r="C299">
         <v>1027.211</v>
       </c>
-      <c r="D298">
+      <c r="D299">
         <v>888.19100000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
-        <v>44317</v>
-      </c>
-      <c r="B299">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B300">
         <v>5739.56</v>
       </c>
-      <c r="C299">
+      <c r="C300">
         <v>1069.289</v>
       </c>
-      <c r="D299">
+      <c r="D300">
         <v>907.899</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>44348</v>
-      </c>
-      <c r="B300">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B301">
         <v>5769.98</v>
       </c>
-      <c r="C300">
+      <c r="C301">
         <v>1075.7329999999999</v>
       </c>
-      <c r="D300">
+      <c r="D301">
         <v>927.51199999999994</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
-        <v>44378</v>
-      </c>
-      <c r="B301">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B302">
         <v>5825.37</v>
       </c>
-      <c r="C301">
+      <c r="C302">
         <v>1084.095</v>
       </c>
-      <c r="D301">
+      <c r="D302">
         <v>935.35900000000004</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>44409</v>
-      </c>
-      <c r="B302">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B303">
         <v>5876.05</v>
       </c>
-      <c r="C302">
+      <c r="C303">
         <v>1091.29</v>
       </c>
-      <c r="D302">
+      <c r="D303">
         <v>939.69899999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B303">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B304">
         <v>5944.21</v>
       </c>
-      <c r="C303">
+      <c r="C304">
         <v>1084.3119999999999</v>
       </c>
-      <c r="D303">
+      <c r="D304">
         <v>944.52</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B304">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B305">
         <v>6018.51</v>
       </c>
-      <c r="C304">
+      <c r="C305">
         <v>1091.2829999999999</v>
       </c>
-      <c r="D304">
+      <c r="D305">
         <v>952.596</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B305">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B306">
         <v>6075.69</v>
       </c>
-      <c r="C305">
+      <c r="C306">
         <v>1091.4829999999999</v>
       </c>
-      <c r="D305">
+      <c r="D306">
         <v>959.00099999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B306">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B307">
         <v>6120.04</v>
       </c>
-      <c r="C306">
+      <c r="C307">
         <v>1100.9880000000001</v>
       </c>
-      <c r="D306">
+      <c r="D307">
         <v>962.32100000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
-        <v>44562</v>
-      </c>
-      <c r="B307">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308">
         <v>6153.09</v>
       </c>
-      <c r="C307">
+      <c r="C308">
         <v>1120.999</v>
       </c>
-      <c r="D307">
+      <c r="D308">
         <v>969.18399999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
-        <v>44593</v>
-      </c>
-      <c r="B308">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B309">
         <v>6215.24</v>
       </c>
-      <c r="C308">
+      <c r="C309">
         <v>1141.546</v>
       </c>
-      <c r="D308">
+      <c r="D309">
         <v>972.904</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
-        <v>44621</v>
-      </c>
-      <c r="B309">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B310">
         <v>6315.93</v>
       </c>
-      <c r="C309">
+      <c r="C310">
         <v>1161.4179999999999</v>
       </c>
-      <c r="D309">
+      <c r="D310">
         <v>981.24400000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
-        <v>44652</v>
-      </c>
-      <c r="B310">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B311">
         <v>6382.88</v>
       </c>
-      <c r="C310">
+      <c r="C311">
         <v>1177.809</v>
       </c>
-      <c r="D310">
+      <c r="D311">
         <v>990.54300000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
-        <v>44682</v>
-      </c>
-      <c r="B311">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B312">
         <v>6412.88</v>
       </c>
-      <c r="C311">
+      <c r="C312">
         <v>1183.953</v>
       </c>
-      <c r="D311">
+      <c r="D312">
         <v>1013.164</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
-        <v>44713</v>
-      </c>
-      <c r="B312">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B313">
         <v>6455.85</v>
       </c>
-      <c r="C312">
+      <c r="C313">
         <v>1190.8820000000001</v>
       </c>
-      <c r="D312">
+      <c r="D313">
         <v>1034.8240000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B313">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B314">
         <v>6411.95</v>
       </c>
-      <c r="C313">
+      <c r="C314">
         <v>1193.337</v>
       </c>
-      <c r="D313">
+      <c r="D314">
         <v>1043.76</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
-        <v>44774</v>
-      </c>
-      <c r="B314">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B315">
         <v>6388.87</v>
       </c>
-      <c r="C314">
+      <c r="C315">
         <v>1185.0039999999999</v>
       </c>
-      <c r="D314">
+      <c r="D315">
         <v>1044.6790000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
-        <v>44805</v>
-      </c>
-      <c r="B315">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B316">
         <v>6370.34</v>
       </c>
-      <c r="C315">
+      <c r="C316">
         <v>1173.7929999999999</v>
       </c>
-      <c r="D315">
+      <c r="D316">
         <v>1045.616</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B316">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B317">
         <v>6407.93</v>
       </c>
-      <c r="C316">
+      <c r="C317">
         <v>1162.3910000000001</v>
       </c>
-      <c r="D316">
+      <c r="D317">
         <v>1046.896</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
-        <v>44866</v>
-      </c>
-      <c r="B317">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B318">
         <v>6434.2</v>
       </c>
-      <c r="C317">
+      <c r="C318">
         <v>1155.829</v>
       </c>
-      <c r="D317">
+      <c r="D318">
         <v>1050.701</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B318">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319">
         <v>6474.09</v>
       </c>
-      <c r="C318">
+      <c r="C319">
         <v>1161.0060000000001</v>
       </c>
-      <c r="D318">
+      <c r="D319">
         <v>1051.6320000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
-        <v>44927</v>
-      </c>
-      <c r="B319">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B320">
         <v>6508.4</v>
       </c>
-      <c r="C319">
+      <c r="C320">
         <v>1163.4649999999999</v>
       </c>
-      <c r="D319">
+      <c r="D320">
         <v>1056.4179999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B320">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321">
         <v>6563.07</v>
       </c>
-      <c r="C320">
+      <c r="C321">
         <v>1162.761</v>
       </c>
-      <c r="D320">
+      <c r="D321">
         <v>1056.896</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B321">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B322">
         <v>6609.67</v>
       </c>
-      <c r="C321">
+      <c r="C322">
         <v>1163.3589999999999</v>
       </c>
-      <c r="D321">
+      <c r="D322">
         <v>1060.116</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
-        <v>45017</v>
-      </c>
-      <c r="B322">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B323">
         <v>6649.99</v>
       </c>
-      <c r="C322">
+      <c r="C323">
         <v>1152.307</v>
       </c>
-      <c r="D322">
+      <c r="D323">
         <v>1061.635</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
-        <v>45047</v>
-      </c>
-      <c r="B323">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B324">
         <v>6665.28</v>
       </c>
-      <c r="C323">
+      <c r="C324">
         <v>1131.058</v>
       </c>
-      <c r="D323">
+      <c r="D324">
         <v>1067.9190000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
-        <v>45078</v>
-      </c>
-      <c r="B324">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325">
         <v>6659.95</v>
       </c>
-      <c r="C324">
+      <c r="C325">
         <v>1109.23</v>
       </c>
-      <c r="D324">
+      <c r="D325">
         <v>1075.54</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
-        <v>45108</v>
-      </c>
-      <c r="B325">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B326">
         <v>6667.94</v>
       </c>
-      <c r="C325">
+      <c r="C326">
         <v>1101.204</v>
       </c>
-      <c r="D325">
+      <c r="D326">
         <v>1076.626</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
-        <v>45139</v>
-      </c>
-      <c r="B326">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B327">
         <v>6683.28</v>
       </c>
-      <c r="C326">
+      <c r="C327">
         <v>1099.71</v>
       </c>
-      <c r="D326">
+      <c r="D327">
         <v>1078.412</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
-        <v>45170</v>
-      </c>
-      <c r="B327">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B328">
         <v>6700.66</v>
       </c>
-      <c r="C327">
+      <c r="C328">
         <v>1103.74</v>
       </c>
-      <c r="D327">
+      <c r="D328">
         <v>1082.104</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
-        <v>45200</v>
-      </c>
-      <c r="B328">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B329">
         <v>6716.74</v>
       </c>
-      <c r="C328">
+      <c r="C329">
         <v>1109.2360000000001</v>
       </c>
-      <c r="D328">
+      <c r="D329">
         <v>1084.242</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B329">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B330">
         <v>6735.55</v>
       </c>
-      <c r="C329">
+      <c r="C330">
         <v>1115.8150000000001</v>
       </c>
-      <c r="D329">
+      <c r="D330">
         <v>1084.9860000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
-        <v>45261</v>
-      </c>
-      <c r="B330">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B331">
         <v>6773.27</v>
       </c>
-      <c r="C330">
+      <c r="C331">
         <v>1124.0719999999999</v>
       </c>
-      <c r="D330">
+      <c r="D331">
         <v>1088.3119999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B331">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B332">
         <v>6801.72</v>
       </c>
-      <c r="C331">
+      <c r="C332">
         <v>1124.8789999999999</v>
       </c>
-      <c r="D331">
+      <c r="D332">
         <v>1091.25</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B332">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B333">
         <v>6858.17</v>
       </c>
-      <c r="C332">
+      <c r="C333">
         <v>1119.0609999999999</v>
       </c>
-      <c r="D332">
+      <c r="D333">
         <v>1092.6849999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B333">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B334">
         <v>6869.14</v>
       </c>
-      <c r="C333">
+      <c r="C334">
         <v>1113.837</v>
       </c>
-      <c r="D333">
+      <c r="D334">
         <v>1095.7380000000001</v>
       </c>
     </row>
